--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A537C-610D-41AD-97FE-91CCD046B6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A095E6-853F-4D32-A219-E1B40EC53E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1730" yWindow="2170" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="4050" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>##</t>
   </si>
@@ -174,6 +174,22 @@
   </si>
   <si>
     <t>Battle.Property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速，高攻高机动，低体魄，低灵气，多单体伤害技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高灵气，高神识，低生命值，低体魄，低移动，多范围伤害技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性均衡，多治疗，多增益/减益技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="59.83203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
@@ -827,6 +843,117 @@
       </c>
       <c r="N6" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A095E6-853F-4D32-A219-E1B40EC53E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E28286-919B-40DA-92E2-0E49A4E6A556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="4050" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>##</t>
   </si>
@@ -190,6 +190,14 @@
   </si>
   <si>
     <t>属性均衡，多治疗，多增益/减益技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +625,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,10 +855,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
@@ -878,14 +886,17 @@
       </c>
       <c r="L7" s="1">
         <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>102</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -914,13 +925,11 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>103</v>
+        <v>1003</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
@@ -952,9 +961,7 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E28286-919B-40DA-92E2-0E49A4E6A556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EFFF6-BC55-4D88-A7FD-6EE785E488F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +890,9 @@
       <c r="M7" s="1">
         <v>1001</v>
       </c>
+      <c r="N7" s="1">
+        <v>1002</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EFFF6-BC55-4D88-A7FD-6EE785E488F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052536B-5EFA-419A-9179-0B816C26436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6590" yWindow="3830" windowWidth="28340" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5290" yWindow="7890" windowWidth="28340" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>##</t>
   </si>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>侠客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江湖侠士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soldier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练气士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseProperty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +182,10 @@
   </si>
   <si>
     <t>气修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -659,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -667,10 +655,10 @@
       <c r="J1" s="6"/>
       <c r="K1" s="5"/>
       <c r="L1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N1" s="5"/>
     </row>
@@ -691,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -699,10 +687,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" s="5"/>
     </row>
@@ -711,22 +699,22 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
@@ -748,223 +736,179 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
+      <c r="M5" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1002</v>
-      </c>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052536B-5EFA-419A-9179-0B816C26436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD17D9-2870-4FFC-9BA1-1A3427944D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5290" yWindow="7890" windowWidth="28340" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="3610" windowWidth="21450" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +872,9 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>1003</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -908,7 +910,9 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>1003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD17D9-2870-4FFC-9BA1-1A3427944D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D654E264-76B7-4901-89B3-AFB0C7DEB103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="3610" windowWidth="21450" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="5420" windowWidth="25160" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +875,9 @@
       <c r="M7" s="2">
         <v>1003</v>
       </c>
+      <c r="N7" s="1">
+        <v>1004</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D654E264-76B7-4901-89B3-AFB0C7DEB103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FC529-604A-4B8D-A694-4281FA0C5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="5420" windowWidth="25160" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(map#sep=:|),EAttrType,int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:100|最大灵气:100|速度:10|力量:10|体魄:10|神识:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +342,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -610,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +652,13 @@
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -646,23 +674,26 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -678,23 +709,26 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -716,10 +750,10 @@
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="4"/>
       <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -753,15 +787,15 @@
       <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1000</v>
       </c>
@@ -790,14 +824,17 @@
       <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
@@ -828,17 +865,20 @@
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1001</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
@@ -869,17 +909,20 @@
       <c r="K7" s="1">
         <v>9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1003</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
@@ -910,19 +953,22 @@
       <c r="K8" s="1">
         <v>7</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
   </mergeCells>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FC529-604A-4B8D-A694-4281FA0C5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD8AD6-0A33-478E-90F7-D6D77B1733E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>##</t>
   </si>
@@ -77,46 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大灵气值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxQI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体魄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveSkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,22 +102,6 @@
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle.Property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -300,17 +244,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
@@ -331,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,13 +277,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -637,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,22 +578,19 @@
     <col min="1" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="59.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -674,26 +601,18 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="6"/>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -709,51 +628,25 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -769,208 +662,116 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
-        <v>100</v>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1">
-        <v>20</v>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <v>1001</v>
       </c>
       <c r="I6" s="1">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="O6" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
-        <v>15</v>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="1">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1003</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="O7" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
-        <v>20</v>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="H8" s="2">
         <v>1003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
+  <mergeCells count="4">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD8AD6-0A33-478E-90F7-D6D77B1733E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D9AC7-2087-411B-BEEB-463B6AC49F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>1003</v>
+        <v>1005</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D9AC7-2087-411B-BEEB-463B6AC49F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF767AB-29B0-4626-B4D9-36B724E9185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命:100|最大灵气:100|速度:10|力量:10|体魄:10|神识:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:99|最大灵气:99|速度:10|力量:10|体魄:10|神识:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF767AB-29B0-4626-B4D9-36B724E9185E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69785FC3-5353-4D5D-A1F7-8B4395FF0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="5170" windowWidth="30030" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38320" yWindow="8000" windowWidth="20650" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>set,int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,22 @@
   </si>
   <si>
     <t>最大生命:99|最大灵气:99|速度:10|力量:10|体魄:10|神识:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(set#sep=,),int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005,1006,1007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,10 +292,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,16 +596,16 @@
     <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="75" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -602,17 +617,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -629,24 +643,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,119 +677,106 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1002</v>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1004</v>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1006</v>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H6:H8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69785FC3-5353-4D5D-A1F7-8B4395FF0792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC128E-09C7-4C8E-BDD4-7A9DA7862B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="8000" windowWidth="20650" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="4590" windowWidth="20650" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -137,22 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命:99|最大灵气:99|速度:10|力量:10|体魄:10|神识:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001,1002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +150,22 @@
   </si>
   <si>
     <t>1005,1006,1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:99|最大灵气:99|速度:1|力量:1|体魄:1|神识:1|法身:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7|法身:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:9|法身:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|法身:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +585,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -716,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -739,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC128E-09C7-4C8E-BDD4-7A9DA7862B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F9697-33F1-4A58-B662-2FDCF1433904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="4590" windowWidth="20650" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38390" yWindow="6810" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>##</t>
   </si>
@@ -166,6 +166,61 @@
   </si>
   <si>
     <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|法身:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺心魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断头石佛怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|法身:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|法身:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|法身:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|法身:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,12 +826,92 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>5004</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H8" numberStoredAsText="1"/>
+    <ignoredError sqref="H6:H8 H9:H12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424F9697-33F1-4A58-B662-2FDCF1433904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B3D8E-234F-4E1F-A3B6-A5D562D809E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38390" yWindow="6810" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10150" yWindow="5120" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>##</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soldier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveSkillId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,13 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>knight</t>
-  </si>
-  <si>
-    <t>knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|法身:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +210,30 @@
   </si>
   <si>
     <t>5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -672,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -698,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -730,10 +743,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,14 +754,14 @@
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -762,22 +775,22 @@
         <v>1001</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,22 +798,22 @@
         <v>1002</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,22 +821,22 @@
         <v>1003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,19 +844,22 @@
         <v>5001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,19 +867,22 @@
         <v>5002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,19 +890,22 @@
         <v>5003</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,19 +913,22 @@
         <v>5004</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B3D8E-234F-4E1F-A3B6-A5D562D809E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0027C-A880-45A2-AA18-C21A421EF8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10150" yWindow="5120" windowWidth="21680" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:9|法身:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|法身:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|法身:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|法身:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|法身:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +222,18 @@
   </si>
   <si>
     <t>妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|法身:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|法身:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:8|法身:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
@@ -781,10 +781,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>33</v>
@@ -844,22 +844,22 @@
         <v>5001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,22 +867,22 @@
         <v>5002</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -890,22 +890,22 @@
         <v>5003</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,22 +913,22 @@
         <v>5004</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanguo\Desktop\HEDAO\新导表工具\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A30132-2208-4904-93ED-7461AB710738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="4410" windowWidth="21030" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -69,6 +63,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>(map#sep=:|),EAttrType,int</t>
+  </si>
+  <si>
     <t>(set#sep=,),int</t>
   </si>
   <si>
@@ -192,54 +189,47 @@
     <t>WuXinRange</t>
   </si>
   <si>
+    <t>BattleAttrGrowRange</t>
+  </si>
+  <si>
+    <t>AttrRange</t>
+  </si>
+  <si>
     <t>Range</t>
   </si>
   <si>
+    <t>(map#sep=:|),EAttrType,Range</t>
+  </si>
+  <si>
     <t>五行天赋区间</t>
   </si>
   <si>
     <t>战斗属性成长率区间</t>
   </si>
   <si>
+    <t>属性区间</t>
+  </si>
+  <si>
     <t>0,100</t>
   </si>
   <si>
     <t>40,60</t>
   </si>
   <si>
-    <t>BattleAttrGrowRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttrRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(map#sep=:|),EAttrType,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(map#sep=:|),EAttrType,Range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性区间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄:16,24|寿命:100,100|幸运:0,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:15,25|最大灵气:1,10|速度:1,10|力量:1,10|体魄:1,10|神识:1,10|法身:1,10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,30 +245,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +402,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -341,67 +632,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="007F7F7F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -659,31 +1214,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.8333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.8333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="75" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.58203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="2"/>
+    <col min="8" max="8" width="16.5833333333333" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,17 +1254,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -725,231 +1280,231 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>59</v>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
+      <c r="H6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="2">
         <v>1002</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>34</v>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="2">
         <v>5001</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>38</v>
+      <c r="H9" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="2">
         <v>5002</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>42</v>
+      <c r="H10" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="2">
         <v>5003</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>46</v>
+      <c r="H11" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="2">
         <v>5004</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>50</v>
+      <c r="H12" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="H6:H8 H9:H12" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -957,21 +1512,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" customWidth="1"/>
-    <col min="5" max="5" width="36.4140625" customWidth="1"/>
+    <col min="4" max="4" width="20.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="117.416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,65 +1552,65 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="2:5">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1"/>
+    <row r="7" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -216,7 +216,7 @@
     <t>40,60</t>
   </si>
   <si>
-    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:15,25|最大灵气:1,10|速度:1,10|力量:1,10|体魄:1,10|神识:1,10|法身:1,10</t>
+    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:20,30|最大灵气:6,10|速度:6,10|力量:6,10|体魄:6,10|神识:6,10|法身:6,10</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H8 H9:H12" numberStoredAsText="1"/>
+    <ignoredError sqref="H9:H12 H6:H8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1516,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" activeTab="1"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -213,10 +213,10 @@
     <t>0,100</t>
   </si>
   <si>
-    <t>40,60</t>
-  </si>
-  <si>
-    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:20,30|最大灵气:6,10|速度:6,10|力量:6,10|体魄:6,10|神识:6,10|法身:6,10</t>
+    <t>50,50</t>
+  </si>
+  <si>
+    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:25,25|最大灵气:8,8|速度:8,8|力量:8,8|体魄:8,8|神识:8,8|法身:8,8</t>
   </si>
 </sst>
 </file>
@@ -1226,16 +1226,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.8333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.8303571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.8303571428571" style="2" customWidth="1"/>
     <col min="6" max="6" width="75" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5833333333333" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.16666666666667" style="2"/>
+    <col min="8" max="8" width="16.5803571428571" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1506,7 +1506,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H9:H12 H6:H8" numberStoredAsText="1"/>
+    <ignoredError sqref="H6:H12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1516,15 +1516,15 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="20.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="117.416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.4196428571429" customWidth="1"/>
+    <col min="5" max="5" width="117.419642857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -189,34 +189,70 @@
     <t>WuXinRange</t>
   </si>
   <si>
-    <t>BattleAttrGrowRange</t>
-  </si>
-  <si>
-    <t>AttrRange</t>
+    <t>InitAttr</t>
   </si>
   <si>
     <t>Range</t>
   </si>
   <si>
-    <t>(map#sep=:|),EAttrType,Range</t>
+    <t>map,EAttrType,int</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>寿命</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>最大灵气</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>神识</t>
+  </si>
+  <si>
+    <t>体魄</t>
+  </si>
+  <si>
+    <t>法身</t>
+  </si>
+  <si>
+    <t>生命成长</t>
+  </si>
+  <si>
+    <t>灵气成长</t>
+  </si>
+  <si>
+    <t>速度成长</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>神识成长</t>
+  </si>
+  <si>
+    <t>体魄成长</t>
+  </si>
+  <si>
+    <t>法身成长</t>
   </si>
   <si>
     <t>五行天赋区间</t>
   </si>
   <si>
-    <t>战斗属性成长率区间</t>
-  </si>
-  <si>
-    <t>属性区间</t>
-  </si>
-  <si>
     <t>0,100</t>
-  </si>
-  <si>
-    <t>50,50</t>
-  </si>
-  <si>
-    <t>年龄:16,24|寿命:60,100|幸运:0,100|最大生命:25,25|最大灵气:8,8|速度:8,8|力量:8,8|体魄:8,8|神识:8,8|法身:8,8</t>
   </si>
 </sst>
 </file>
@@ -865,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,13 +911,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1222,8 +1255,8 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1234,7 +1267,7 @@
     <col min="5" max="5" width="11.8303571428571" style="2" customWidth="1"/>
     <col min="6" max="6" width="75" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5803571428571" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.5803571428571" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
@@ -1254,13 +1287,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1280,13 +1313,13 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1294,7 +1327,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -1315,7 +1348,7 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1336,7 +1369,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1359,7 +1392,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1382,7 +1415,7 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1405,7 +1438,7 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1428,7 +1461,7 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1451,7 +1484,7 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1474,7 +1507,7 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1497,7 +1530,7 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1514,20 +1547,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="20.4196428571429" customWidth="1"/>
-    <col min="5" max="5" width="117.419642857143" customWidth="1"/>
+    <col min="4" max="6" width="5.85714285714286" customWidth="1"/>
+    <col min="7" max="8" width="10.1428571428571" customWidth="1"/>
+    <col min="9" max="13" width="5.85714285714286" customWidth="1"/>
+    <col min="14" max="20" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,14 +1572,11 @@
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1552,21 +1584,69 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,27 +1654,66 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:5">
+    <row r="5" s="2" customFormat="1" spans="2:20">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2">
+        <v>20</v>
+      </c>
+      <c r="S5" s="2">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1"/>
@@ -1610,6 +1729,10 @@
     <row r="16" s="2" customFormat="1"/>
     <row r="17" s="2" customFormat="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:T1"/>
+    <mergeCell ref="D2:T2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="15140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
     <sheet name="角色模板表" sheetId="5" r:id="rId2"/>
+    <sheet name="天赋表" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -96,7 +97,7 @@
     <t>enemy</t>
   </si>
   <si>
-    <t>最大生命:99|最大灵气:99|速度:1|力量:1|体魄:1|神识:1|法身:1</t>
+    <t>最大生命:99|最大灵气:99|速度:1|力量:1|体魄:1|神识:1|灵抗:1</t>
   </si>
   <si>
     <t>剑修</t>
@@ -108,7 +109,7 @@
     <t>player</t>
   </si>
   <si>
-    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|法身:3</t>
+    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|灵抗:3</t>
   </si>
   <si>
     <t>1001,1002</t>
@@ -120,7 +121,7 @@
     <t>高灵气，高神识，低生命值，低体魄，低移动，多范围伤害技能</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:8|法身:5</t>
+    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:8|灵抗:5</t>
   </si>
   <si>
     <t>1003,1004</t>
@@ -132,7 +133,7 @@
     <t>属性均衡，多治疗，多增益/减益技能</t>
   </si>
   <si>
-    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7|法身:6</t>
+    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7|灵抗:6</t>
   </si>
   <si>
     <t>1005,1006,1007</t>
@@ -144,7 +145,7 @@
     <t>狼妖</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|法身:6</t>
+    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|灵抗:6</t>
   </si>
   <si>
     <t>5001</t>
@@ -156,7 +157,7 @@
     <t>夺心魔</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|法身:5</t>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|灵抗:5</t>
   </si>
   <si>
     <t>5002</t>
@@ -168,7 +169,7 @@
     <t>水鬼</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|法身:5</t>
+    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|灵抗:5</t>
   </si>
   <si>
     <t>5003</t>
@@ -180,7 +181,7 @@
     <t>断头石佛怪</t>
   </si>
   <si>
-    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|法身:2</t>
+    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|灵抗:2</t>
   </si>
   <si>
     <t>5004</t>
@@ -225,7 +226,7 @@
     <t>体魄</t>
   </si>
   <si>
-    <t>法身</t>
+    <t>灵抗</t>
   </si>
   <si>
     <t>生命成长</t>
@@ -246,13 +247,106 @@
     <t>体魄成长</t>
   </si>
   <si>
-    <t>法身成长</t>
+    <t>灵抗成长</t>
   </si>
   <si>
     <t>五行天赋区间</t>
   </si>
   <si>
     <t>0,100</t>
+  </si>
+  <si>
+    <t>EffectList</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 效果列表</t>
+  </si>
+  <si>
+    <t>皮实</t>
+  </si>
+  <si>
+    <t>30001</t>
+  </si>
+  <si>
+    <t>灵动</t>
+  </si>
+  <si>
+    <t>30002</t>
+  </si>
+  <si>
+    <t>铁骨</t>
+  </si>
+  <si>
+    <t>30003</t>
+  </si>
+  <si>
+    <t>强壮</t>
+  </si>
+  <si>
+    <t>30004</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>30005</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>30006</t>
+  </si>
+  <si>
+    <t>出尘</t>
+  </si>
+  <si>
+    <t>30007</t>
+  </si>
+  <si>
+    <t>皮糙肉厚</t>
+  </si>
+  <si>
+    <t>30008</t>
+  </si>
+  <si>
+    <t>灵气亲和</t>
+  </si>
+  <si>
+    <t>30009</t>
+  </si>
+  <si>
+    <t>铜头铁骨</t>
+  </si>
+  <si>
+    <t>30010</t>
+  </si>
+  <si>
+    <t>天生神力</t>
+  </si>
+  <si>
+    <t>30011</t>
+  </si>
+  <si>
+    <t>聪明绝顶</t>
+  </si>
+  <si>
+    <t>30012</t>
+  </si>
+  <si>
+    <t>身轻如燕</t>
+  </si>
+  <si>
+    <t>30013</t>
+  </si>
+  <si>
+    <t>绝灵之体</t>
+  </si>
+  <si>
+    <t>30014</t>
   </si>
 </sst>
 </file>
@@ -643,10 +737,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -656,10 +750,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -901,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,16 +1008,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1256,7 +1356,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1287,13 +1387,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1313,13 +1413,13 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1327,7 +1427,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -1348,7 +1448,7 @@
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1356,14 +1456,14 @@
       <c r="B5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2">
@@ -1377,22 +1477,22 @@
       <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1400,22 +1500,22 @@
       <c r="B7" s="2">
         <v>1002</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1423,22 +1523,22 @@
       <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1446,22 +1546,22 @@
       <c r="B9" s="2">
         <v>5001</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1469,22 +1569,22 @@
       <c r="B10" s="2">
         <v>5002</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1492,22 +1592,22 @@
       <c r="B11" s="2">
         <v>5003</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1515,22 +1615,22 @@
       <c r="B12" s="2">
         <v>5004</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1549,8 +1649,8 @@
   <sheetPr/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
@@ -1736,4 +1836,231 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2">
+        <v>10011</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="2">
+        <v>10012</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>10013</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>10014</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="2"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Image</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
     <t>BaseAttr</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>境界</t>
   </si>
   <si>
     <t>移动技能Id</t>
@@ -995,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1024,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1353,25 +1362,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.8303571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5803571428571" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.16964285714286" style="2"/>
+    <col min="4" max="4" width="20.6607142857143" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5803571428571" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,248 +1399,281 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="2">
         <v>1000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2">
         <v>1002</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2">
         <v>1003</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2">
         <v>5001</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="2">
         <v>5002</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="2">
         <v>5003</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="2">
         <v>5004</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>51</v>
+      <c r="G12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1681,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H12" numberStoredAsText="1"/>
+    <ignoredError sqref="I6:I12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1650,7 +1692,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
@@ -1670,24 +1712,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:20">
@@ -1695,66 +1737,66 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:20">
@@ -1762,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2">
         <v>16</v>
@@ -1780,7 +1822,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
         <v>8</v>
@@ -1843,7 +1885,7 @@
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1867,21 +1909,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1893,16 +1935,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1910,10 +1952,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1921,10 +1963,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1932,10 +1974,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1943,10 +1985,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1954,10 +1996,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1965,10 +2007,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1976,10 +2018,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1987,10 +2029,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1998,10 +2040,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2009,10 +2051,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2020,10 +2062,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2031,10 +2073,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2042,10 +2084,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2053,10 +2095,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -145,52 +145,52 @@
     <t>1005,1006,1007</t>
   </si>
   <si>
+    <t>魔</t>
+  </si>
+  <si>
+    <t>夺心魔</t>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|灵抗:5</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>水鬼</t>
+  </si>
+  <si>
+    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|灵抗:5</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>怪</t>
+  </si>
+  <si>
+    <t>断头石佛怪</t>
+  </si>
+  <si>
+    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|灵抗:2</t>
+  </si>
+  <si>
+    <t>5004</t>
+  </si>
+  <si>
     <t>妖</t>
   </si>
   <si>
     <t>狼妖</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:10|速度:7|力量:6|体魄:5|神识:3|灵抗:6</t>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:6|体魄:4|神识:3|灵抗:3</t>
   </si>
   <si>
     <t>5001</t>
-  </si>
-  <si>
-    <t>魔</t>
-  </si>
-  <si>
-    <t>夺心魔</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|灵抗:5</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>鬼</t>
-  </si>
-  <si>
-    <t>水鬼</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|灵抗:5</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>怪</t>
-  </si>
-  <si>
-    <t>断头石佛怪</t>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|灵抗:2</t>
-  </si>
-  <si>
-    <t>5004</t>
   </si>
   <si>
     <t>WuXinRange</t>
@@ -1001,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +1024,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
@@ -1365,7 +1362,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
@@ -1399,7 +1396,7 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1428,7 +1425,7 @@
       <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1516,7 +1513,7 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1542,7 +1539,7 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1568,13 +1565,13 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -1594,13 +1591,13 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>42</v>
@@ -1620,13 +1617,13 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="2">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>46</v>
@@ -1646,13 +1643,13 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="2">
-        <v>5004</v>
+        <v>10001</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>50</v>
@@ -1672,7 +1669,7 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1681,7 +1678,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I6:I12" numberStoredAsText="1"/>
+    <ignoredError sqref="I6:I11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowWidth="24580" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -1023,13 +1023,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1362,19 +1362,19 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.16964285714286" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6607142857143" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.6583333333333" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.8333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5803571428571" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.16964285714286" style="2"/>
+    <col min="9" max="9" width="16.5833333333333" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1393,10 +1393,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1422,10 +1422,10 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1471,17 +1471,17 @@
       <c r="B5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2">
@@ -1495,19 +1495,19 @@
       <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2">
@@ -1521,19 +1521,19 @@
       <c r="B7" s="2">
         <v>1002</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="2">
@@ -1547,19 +1547,19 @@
       <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="2">
@@ -1573,19 +1573,19 @@
       <c r="B9" s="2">
         <v>5002</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="2">
@@ -1599,19 +1599,19 @@
       <c r="B10" s="2">
         <v>5003</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="2">
@@ -1625,19 +1625,19 @@
       <c r="B11" s="2">
         <v>5004</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="2">
@@ -1651,23 +1651,23 @@
       <c r="B12" s="2">
         <v>10001</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>1002</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>53</v>
@@ -1692,13 +1692,13 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="6" width="5.85714285714286" customWidth="1"/>
-    <col min="7" max="8" width="10.1428571428571" customWidth="1"/>
-    <col min="9" max="13" width="5.85714285714286" customWidth="1"/>
-    <col min="14" max="20" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="6" width="5.85833333333333" customWidth="1"/>
+    <col min="7" max="8" width="10.1416666666667" customWidth="1"/>
+    <col min="9" max="13" width="5.85833333333333" customWidth="1"/>
+    <col min="14" max="20" width="10.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1886,13 +1886,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5714285714286" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.575" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24580" windowHeight="16600"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -1023,13 +1023,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1361,20 +1361,20 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6583333333333" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.6607142857143" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.8303571428571" style="2" customWidth="1"/>
     <col min="7" max="7" width="75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5833333333333" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.16666666666667" style="2"/>
+    <col min="9" max="9" width="16.5803571428571" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1393,10 +1393,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1422,10 +1422,10 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1471,17 +1471,17 @@
       <c r="B5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2">
@@ -1495,19 +1495,19 @@
       <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2">
@@ -1521,19 +1521,19 @@
       <c r="B7" s="2">
         <v>1002</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H7" s="2">
@@ -1547,19 +1547,19 @@
       <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="2">
@@ -1573,19 +1573,19 @@
       <c r="B9" s="2">
         <v>5002</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="2">
@@ -1599,19 +1599,19 @@
       <c r="B10" s="2">
         <v>5003</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="2">
@@ -1625,19 +1625,19 @@
       <c r="B11" s="2">
         <v>5004</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="2">
@@ -1651,19 +1651,19 @@
       <c r="B12" s="2">
         <v>10001</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="2">
@@ -1688,17 +1688,17 @@
   <sheetPr/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="6" width="5.85833333333333" customWidth="1"/>
-    <col min="7" max="8" width="10.1416666666667" customWidth="1"/>
-    <col min="9" max="13" width="5.85833333333333" customWidth="1"/>
-    <col min="14" max="20" width="10.1416666666667" customWidth="1"/>
+    <col min="4" max="6" width="5.85714285714286" customWidth="1"/>
+    <col min="7" max="8" width="10.1428571428571" customWidth="1"/>
+    <col min="9" max="13" width="5.85714285714286" customWidth="1"/>
+    <col min="14" max="20" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1822,37 +1822,37 @@
         <v>6</v>
       </c>
       <c r="J5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O5" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T5" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1"/>
@@ -1886,13 +1886,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.14166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.575" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.575" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="8.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.57142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <t>最大生命:15|最大灵气:10|速度:5|力量:6|体魄:4|神识:3|灵抗:3</t>
   </si>
   <si>
-    <t>5001</t>
+    <t>1001</t>
   </si>
   <si>
     <t>WuXinRange</t>
@@ -1361,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
@@ -1688,7 +1688,7 @@
   <sheetPr/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -181,13 +181,10 @@
     <t>5004</t>
   </si>
   <si>
-    <t>妖</t>
-  </si>
-  <si>
     <t>狼妖</t>
   </si>
   <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:6|体魄:4|神识:3|灵抗:3</t>
+    <t>最大生命:15|最大灵气:10|速度:5|力量:6|体魄:4|神识:3|灵抗:3|身法:10</t>
   </si>
   <si>
     <t>1001</t>
@@ -1362,7 +1359,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
@@ -1655,7 +1652,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1664,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2">
         <v>1002</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1686,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
@@ -1709,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -1723,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:20">
@@ -1734,55 +1731,55 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
@@ -1793,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:20">
@@ -1801,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>16</v>
@@ -1906,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -1920,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1941,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1949,10 +1946,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1960,10 +1957,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1971,10 +1968,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1982,10 +1979,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1993,10 +1990,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2004,10 +2001,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2015,10 +2012,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2026,10 +2023,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2037,10 +2034,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2048,10 +2045,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2059,10 +2056,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2070,10 +2067,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2081,10 +2078,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2092,10 +2089,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -40,229 +40,160 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>BookList</t>
+  </si>
+  <si>
+    <t>RoleTag</t>
+  </si>
+  <si>
+    <t>MoveSkillId</t>
+  </si>
+  <si>
+    <t>SkillSet</t>
+  </si>
+  <si>
+    <t>InitAttr</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>(set#sep=,),int</t>
+  </si>
+  <si>
+    <t>map,EAttrType,int</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>寿命</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>身法</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>最大灵气</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>神识</t>
+  </si>
+  <si>
+    <t>体魄</t>
+  </si>
+  <si>
+    <t>灵抗</t>
+  </si>
+  <si>
+    <t>生命成长</t>
+  </si>
+  <si>
+    <t>灵气成长</t>
+  </si>
+  <si>
+    <t>速度成长</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>神识成长</t>
+  </si>
+  <si>
+    <t>体魄成长</t>
+  </si>
+  <si>
+    <t>灵抗成长</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>境界</t>
+  </si>
+  <si>
+    <t>功法</t>
+  </si>
+  <si>
+    <t>特质</t>
+  </si>
+  <si>
+    <t>移动技能Id</t>
+  </si>
+  <si>
+    <t>技能集合</t>
+  </si>
+  <si>
+    <t>狼妖</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>无名</t>
+  </si>
+  <si>
+    <t>1002,2001</t>
+  </si>
+  <si>
+    <t>萧炎</t>
+  </si>
+  <si>
+    <t>1004,2003</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>BaseAttr</t>
-  </si>
-  <si>
-    <t>MoveSkillId</t>
-  </si>
-  <si>
-    <t>SkillSet</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>(map#sep=:|),EAttrType,int</t>
-  </si>
-  <si>
-    <t>(set#sep=,),int</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>境界</t>
-  </si>
-  <si>
-    <t>移动技能Id</t>
-  </si>
-  <si>
-    <t>技能集合</t>
-  </si>
-  <si>
-    <t>灵</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>最大生命:99|最大灵气:99|速度:1|力量:1|体魄:1|神识:1|灵抗:1</t>
-  </si>
-  <si>
-    <t>剑修</t>
-  </si>
-  <si>
-    <t>高速，高攻高机动，低体魄，低灵气，多单体伤害技能</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:10|速度:8|力量:6|体魄:6|神识:4|灵抗:3</t>
-  </si>
-  <si>
-    <t>1001,1002</t>
-  </si>
-  <si>
-    <t>气修</t>
-  </si>
-  <si>
-    <t>高灵气，高神识，低生命值，低体魄，低移动，多范围伤害技能</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:25|速度:6|力量:3|体魄:4|神识:8|灵抗:5</t>
-  </si>
-  <si>
-    <t>1003,1004</t>
-  </si>
-  <si>
-    <t>药师</t>
-  </si>
-  <si>
-    <t>属性均衡，多治疗，多增益/减益技能</t>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:20|速度:6|力量:4|体魄:5|神识:7|灵抗:6</t>
-  </si>
-  <si>
-    <t>1005,1006,1007</t>
-  </si>
-  <si>
-    <t>魔</t>
-  </si>
-  <si>
-    <t>夺心魔</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:7|体魄:5|神识:2|灵抗:5</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>鬼</t>
-  </si>
-  <si>
-    <t>水鬼</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:15|速度:4|力量:2|体魄:4|神识:6|灵抗:5</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>怪</t>
-  </si>
-  <si>
-    <t>断头石佛怪</t>
-  </si>
-  <si>
-    <t>最大生命:20|最大灵气:10|速度:2|力量:7|体魄:7|神识:1|灵抗:2</t>
-  </si>
-  <si>
-    <t>5004</t>
-  </si>
-  <si>
-    <t>狼妖</t>
-  </si>
-  <si>
-    <t>最大生命:15|最大灵气:10|速度:5|力量:6|体魄:4|神识:3|灵抗:3|身法:10</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
     <t>WuXinRange</t>
   </si>
   <si>
-    <t>InitAttr</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
-    <t>map,EAttrType,int</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>寿命</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>最大生命</t>
-  </si>
-  <si>
-    <t>最大灵气</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>神识</t>
-  </si>
-  <si>
-    <t>体魄</t>
-  </si>
-  <si>
-    <t>灵抗</t>
-  </si>
-  <si>
-    <t>生命成长</t>
-  </si>
-  <si>
-    <t>灵气成长</t>
-  </si>
-  <si>
-    <t>速度成长</t>
-  </si>
-  <si>
-    <t>力量成长</t>
-  </si>
-  <si>
-    <t>神识成长</t>
-  </si>
-  <si>
-    <t>体魄成长</t>
-  </si>
-  <si>
-    <t>灵抗成长</t>
+    <t>描述</t>
   </si>
   <si>
     <t>五行天赋区间</t>
   </si>
   <si>
-    <t>0,100</t>
+    <t>人族</t>
+  </si>
+  <si>
+    <t>30,95</t>
   </si>
   <si>
     <t>EffectList</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
   </si>
   <si>
     <t xml:space="preserve"> 效果列表</t>
@@ -998,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,13 +951,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1356,22 +1284,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6607142857143" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5803571428571" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.16964285714286" style="2"/>
+    <col min="4" max="4" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7321428571429" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5357142857143" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5267857142857" style="3" customWidth="1"/>
+    <col min="9" max="12" width="5.85714285714286" style="2" customWidth="1"/>
+    <col min="13" max="14" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="15" max="19" width="5.85714285714286" style="2" customWidth="1"/>
+    <col min="20" max="26" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1384,22 +1316,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1413,292 +1345,328 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10</v>
+      </c>
+      <c r="M5" s="2">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26">
+      <c r="B6" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10013</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="2">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="J6" s="2">
+        <v>80</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="N6" s="2">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6</v>
+      </c>
+      <c r="S6" s="2">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2">
+        <v>60</v>
+      </c>
+      <c r="U6" s="2">
+        <v>60</v>
+      </c>
+      <c r="V6" s="2">
+        <v>30</v>
+      </c>
+      <c r="W6" s="2">
+        <v>30</v>
+      </c>
+      <c r="X6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10009</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="2">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>6</v>
+      </c>
+      <c r="S7" s="2">
+        <v>6</v>
+      </c>
+      <c r="T7" s="2">
+        <v>60</v>
+      </c>
+      <c r="U7" s="2">
+        <v>60</v>
+      </c>
+      <c r="V7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2">
-        <v>5002</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="2">
-        <v>5003</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="2">
-        <v>5004</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>52</v>
+      <c r="W7" s="2">
+        <v>30</v>
+      </c>
+      <c r="X7" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="I2:Z2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="I6:I11" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N5" sqref="E5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="17.6"/>
   <cols>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="6" width="5.85714285714286" customWidth="1"/>
-    <col min="7" max="8" width="10.1428571428571" customWidth="1"/>
-    <col min="9" max="13" width="5.85714285714286" customWidth="1"/>
-    <col min="14" max="20" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="16.5178571428571" customWidth="1"/>
+    <col min="5" max="7" width="5.85714285714286" customWidth="1"/>
+    <col min="8" max="9" width="10.1428571428571" customWidth="1"/>
+    <col min="10" max="14" width="5.85714285714286" customWidth="1"/>
+    <col min="15" max="21" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,13 +1674,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1720,103 +1691,109 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:20">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:21">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>80</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>25</v>
       </c>
       <c r="H5" s="2">
         <v>25</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>6</v>
@@ -1831,13 +1808,13 @@
         <v>6</v>
       </c>
       <c r="N5" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="O5" s="2">
         <v>60</v>
       </c>
       <c r="P5" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="2">
         <v>30</v>
@@ -1849,6 +1826,9 @@
         <v>30</v>
       </c>
       <c r="T5" s="2">
+        <v>30</v>
+      </c>
+      <c r="U5" s="2">
         <v>30</v>
       </c>
     </row>
@@ -1866,8 +1846,8 @@
     <row r="17" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:T1"/>
-    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="E1:U1"/>
+    <mergeCell ref="E2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1880,7 +1860,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1903,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -1917,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1929,16 +1909,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1946,10 +1926,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1957,10 +1937,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1968,10 +1948,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1979,10 +1959,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1990,10 +1970,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2001,10 +1981,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2012,10 +1992,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2023,10 +2003,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2034,10 +2014,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2045,10 +2025,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2056,10 +2036,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2067,10 +2047,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2078,10 +2058,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2089,10 +2069,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -58,6 +58,9 @@
     <t>InitAttr</t>
   </si>
   <si>
+    <t>InitEquip</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>map,EAttrType,int</t>
   </si>
   <si>
+    <t>(map#sep=:|),EEquipType,int</t>
+  </si>
+  <si>
     <t>年龄</t>
   </si>
   <si>
@@ -160,16 +166,22 @@
     <t>1001</t>
   </si>
   <si>
-    <t>无名</t>
+    <t>赵无名</t>
   </si>
   <si>
     <t>1002,2001</t>
   </si>
   <si>
+    <t>披挂:10003|配饰:10002</t>
+  </si>
+  <si>
     <t>萧炎</t>
   </si>
   <si>
     <t>1004,2003</t>
+  </si>
+  <si>
+    <t>披挂:10003|配饰:10001</t>
   </si>
   <si>
     <t>Desc</t>
@@ -1284,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1303,10 +1315,11 @@
     <col min="13" max="14" width="10.1428571428571" style="2" customWidth="1"/>
     <col min="15" max="19" width="5.85714285714286" style="2" customWidth="1"/>
     <col min="20" max="26" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.16964285714286" style="2"/>
+    <col min="27" max="27" width="28.5178571428571" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,34 +1347,40 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="AA1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:26">
@@ -1370,84 +1389,84 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:19">
@@ -1455,7 +1474,7 @@
         <v>10001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -1466,7 +1485,7 @@
         <v>1002</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2">
         <v>8</v>
@@ -1499,18 +1518,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:27">
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2">
         <v>10013</v>
@@ -1567,19 +1586,22 @@
       <c r="Z6" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:26">
+      <c r="AA6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="2">
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>10009</v>
@@ -1635,6 +1657,9 @@
       </c>
       <c r="Z7" s="2">
         <v>30</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1685,19 +1710,19 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:21">
@@ -1705,69 +1730,69 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1775,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -1883,21 +1908,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
@@ -1909,16 +1934,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1926,10 +1951,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1937,10 +1962,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1948,10 +1973,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1959,10 +1984,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1970,10 +1995,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1981,10 +2006,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1992,10 +2017,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2003,10 +2028,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2014,10 +2039,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2025,10 +2050,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2036,10 +2061,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2047,10 +2072,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2058,10 +2083,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2069,10 +2094,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -43,24 +43,24 @@
     <t>Level</t>
   </si>
   <si>
+    <t>RoleTag</t>
+  </si>
+  <si>
+    <t>MoveSkillId</t>
+  </si>
+  <si>
+    <t>SkillSet</t>
+  </si>
+  <si>
+    <t>InitAttr</t>
+  </si>
+  <si>
+    <t>InitEquip</t>
+  </si>
+  <si>
     <t>BookList</t>
   </si>
   <si>
-    <t>RoleTag</t>
-  </si>
-  <si>
-    <t>MoveSkillId</t>
-  </si>
-  <si>
-    <t>SkillSet</t>
-  </si>
-  <si>
-    <t>InitAttr</t>
-  </si>
-  <si>
-    <t>InitEquip</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -70,18 +70,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>(set#sep=,),int</t>
+  </si>
+  <si>
+    <t>map,EAttrType,int</t>
+  </si>
+  <si>
+    <t>(map#sep=:|),EEquipType,int</t>
+  </si>
+  <si>
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>(set#sep=,),int</t>
-  </si>
-  <si>
-    <t>map,EAttrType,int</t>
-  </si>
-  <si>
-    <t>(map#sep=:|),EEquipType,int</t>
-  </si>
-  <si>
     <t>年龄</t>
   </si>
   <si>
@@ -148,18 +148,18 @@
     <t>境界</t>
   </si>
   <si>
+    <t>特质</t>
+  </si>
+  <si>
+    <t>移动技能Id</t>
+  </si>
+  <si>
+    <t>技能集合</t>
+  </si>
+  <si>
     <t>功法</t>
   </si>
   <si>
-    <t>特质</t>
-  </si>
-  <si>
-    <t>移动技能Id</t>
-  </si>
-  <si>
-    <t>技能集合</t>
-  </si>
-  <si>
     <t>狼妖</t>
   </si>
   <si>
@@ -169,19 +169,19 @@
     <t>赵无名</t>
   </si>
   <si>
+    <t>披挂:10003|配饰:10002</t>
+  </si>
+  <si>
     <t>1002,2001</t>
   </si>
   <si>
-    <t>披挂:10003|配饰:10002</t>
-  </si>
-  <si>
     <t>萧炎</t>
   </si>
   <si>
+    <t>披挂:10003|配饰:10001</t>
+  </si>
+  <si>
     <t>1004,2003</t>
-  </si>
-  <si>
-    <t>披挂:10003|配饰:10001</t>
   </si>
   <si>
     <t>Desc</t>
@@ -1298,24 +1298,23 @@
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7321428571429" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8303571428571" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5357142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.5267857142857" style="3" customWidth="1"/>
-    <col min="9" max="12" width="5.85714285714286" style="2" customWidth="1"/>
-    <col min="13" max="14" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="15" max="19" width="5.85714285714286" style="2" customWidth="1"/>
-    <col min="20" max="26" width="10.1428571428571" style="2" customWidth="1"/>
-    <col min="27" max="27" width="28.5178571428571" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.8303571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5357142857143" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5267857142857" style="3" customWidth="1"/>
+    <col min="8" max="11" width="5.85714285714286" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="14" max="18" width="5.85714285714286" style="2" customWidth="1"/>
+    <col min="19" max="25" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="26" max="26" width="28.5178571428571" style="2" customWidth="1"/>
+    <col min="27" max="27" width="14.7321428571429" style="2" customWidth="1"/>
     <col min="28" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
@@ -1335,19 +1334,19 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1364,86 +1363,86 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:26">
+    <row r="3" s="1" customFormat="1" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1462,14 +1461,14 @@
       <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:27">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -1480,43 +1479,43 @@
         <v>1</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3">
         <v>1002</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
       <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
         <v>30</v>
       </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
       <c r="L5" s="2">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="2">
-        <v>15</v>
-      </c>
       <c r="N5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="2">
-        <v>4</v>
-      </c>
-      <c r="S5" s="2">
-        <v>3</v>
-      </c>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="2:27">
       <c r="B6" s="2">
@@ -1528,27 +1527,27 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>10013</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="2">
+        <v>16</v>
+      </c>
       <c r="I6" s="2">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" s="2">
         <v>8</v>
+      </c>
+      <c r="L6" s="2">
+        <v>25</v>
       </c>
       <c r="M6" s="2">
         <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O6" s="2">
         <v>6</v>
@@ -1563,13 +1562,13 @@
         <v>6</v>
       </c>
       <c r="S6" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="T6" s="2">
         <v>60</v>
       </c>
       <c r="U6" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V6" s="2">
         <v>30</v>
@@ -1583,10 +1582,10 @@
       <c r="Y6" s="2">
         <v>30</v>
       </c>
-      <c r="Z6" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1600,27 +1599,27 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>10009</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="J7" s="2">
-        <v>80</v>
-      </c>
-      <c r="K7" s="2">
         <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>25</v>
       </c>
       <c r="M7" s="2">
         <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2">
         <v>6</v>
@@ -1635,13 +1634,13 @@
         <v>6</v>
       </c>
       <c r="S7" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="T7" s="2">
         <v>60</v>
       </c>
       <c r="U7" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V7" s="2">
         <v>30</v>
@@ -1655,17 +1654,17 @@
       <c r="Y7" s="2">
         <v>30</v>
       </c>
-      <c r="Z7" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="I2:Z2"/>
+    <mergeCell ref="H1:Y1"/>
+    <mergeCell ref="H2:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1705,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1722,7 +1721,7 @@
         <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:21">
@@ -1922,7 +1921,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -1298,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1530,7 +1530,9 @@
       <c r="E6" s="2">
         <v>10013</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H6" s="2">
         <v>16</v>
       </c>
@@ -1602,7 +1604,9 @@
       <c r="E7" s="2">
         <v>10009</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>1004,2003</t>
+  </si>
+  <si>
+    <t>叶凡</t>
+  </si>
+  <si>
+    <t>韩立</t>
   </si>
   <si>
     <t>Desc</t>
@@ -1296,13 +1302,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
@@ -1662,6 +1668,154 @@
         <v>49</v>
       </c>
       <c r="AA7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10013</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6</v>
+      </c>
+      <c r="S8" s="2">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2">
+        <v>60</v>
+      </c>
+      <c r="U8" s="2">
+        <v>30</v>
+      </c>
+      <c r="V8" s="2">
+        <v>30</v>
+      </c>
+      <c r="W8" s="2">
+        <v>30</v>
+      </c>
+      <c r="X8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="2">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10009</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+      <c r="R9" s="2">
+        <v>6</v>
+      </c>
+      <c r="S9" s="2">
+        <v>60</v>
+      </c>
+      <c r="T9" s="2">
+        <v>60</v>
+      </c>
+      <c r="U9" s="2">
+        <v>30</v>
+      </c>
+      <c r="V9" s="2">
+        <v>30</v>
+      </c>
+      <c r="W9" s="2">
+        <v>30</v>
+      </c>
+      <c r="X9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1702,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1722,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1792,10 +1946,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1803,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -1911,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -1946,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1954,10 +2108,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1965,10 +2119,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1976,10 +2130,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1987,10 +2141,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1998,10 +2152,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2009,10 +2163,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2020,10 +2174,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2031,10 +2185,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2042,10 +2196,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2053,10 +2207,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2064,10 +2218,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2075,10 +2229,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2086,10 +2240,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2097,10 +2251,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanguo/Desktop/HEDAO/新导表工具/DataTables/Datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA1FD05-F86A-984B-A4D3-8F1D5BFFC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24730" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +40,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Modle</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -163,9 +160,21 @@
     <t>狼妖</t>
   </si>
   <si>
+    <t>rabid_dog</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>赵无名</t>
   </si>
   <si>
+    <t>twilight_knight</t>
+  </si>
+  <si>
+    <t>1001,1002</t>
+  </si>
+  <si>
     <t>披挂:10003|配饰:10002</t>
   </si>
   <si>
@@ -296,21 +305,19 @@
   </si>
   <si>
     <t>30014</t>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001,1002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,27 +329,155 @@
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +490,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -405,20 +720,244 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,39 +966,79 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="007F7F7F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -717,34 +1296,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="10" width="5.83203125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.1640625" style="2" customWidth="1"/>
-    <col min="13" max="17" width="5.83203125" style="2" customWidth="1"/>
-    <col min="18" max="24" width="10.1640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="28.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9.1640625" style="2"/>
+    <col min="4" max="4" width="19.5916666666667" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="11" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.1666666666667" style="2" customWidth="1"/>
+    <col min="14" max="18" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="19" max="25" width="10.1666666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="28.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,90 +1340,59 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1">
+      <c r="AA1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1">
+      <c r="AA2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
@@ -895,109 +1444,115 @@
       <c r="X3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1">
+      <c r="Y3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>15</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>10</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>5</v>
       </c>
-      <c r="N5" s="2">
-        <v>6</v>
-      </c>
       <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="2:27">
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>10013</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2">
         <v>16</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>80</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>8</v>
-      </c>
-      <c r="K6" s="2">
-        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>25</v>
       </c>
       <c r="M6" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
@@ -1012,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="R6" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="S6" s="2">
         <v>60</v>
       </c>
       <c r="T6" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U6" s="2">
         <v>30</v>
@@ -1032,46 +1587,49 @@
       <c r="X6" s="2">
         <v>30</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Y6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="2">
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>10009</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>80</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>25</v>
       </c>
       <c r="M7" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
         <v>6</v>
@@ -1086,13 +1644,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="S7" s="2">
         <v>60</v>
       </c>
       <c r="T7" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U7" s="2">
         <v>30</v>
@@ -1106,46 +1664,49 @@
       <c r="X7" s="2">
         <v>30</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Y7" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="B8" s="2">
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>10013</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>80</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>8</v>
-      </c>
-      <c r="K8" s="2">
-        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>25</v>
       </c>
       <c r="M8" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
         <v>6</v>
@@ -1160,13 +1721,13 @@
         <v>6</v>
       </c>
       <c r="R8" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="S8" s="2">
         <v>60</v>
       </c>
       <c r="T8" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U8" s="2">
         <v>30</v>
@@ -1180,46 +1741,49 @@
       <c r="X8" s="2">
         <v>30</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Y8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
       <c r="B9" s="2">
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>10009</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2">
         <v>16</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>80</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>25</v>
       </c>
       <c r="M9" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
         <v>6</v>
@@ -1234,13 +1798,13 @@
         <v>6</v>
       </c>
       <c r="R9" s="2">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="S9" s="2">
         <v>60</v>
       </c>
       <c r="T9" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="U9" s="2">
         <v>30</v>
@@ -1254,42 +1818,46 @@
       <c r="X9" s="2">
         <v>30</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>47</v>
+      <c r="Y9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:X1"/>
-    <mergeCell ref="G2:X2"/>
+    <mergeCell ref="H1:Y1"/>
+    <mergeCell ref="H2:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="E5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="21" width="10.1640625" customWidth="1"/>
+    <col min="5" max="7" width="5.83333333333333" customWidth="1"/>
+    <col min="8" max="9" width="10.1666666666667" customWidth="1"/>
+    <col min="10" max="14" width="5.83333333333333" customWidth="1"/>
+    <col min="15" max="21" width="10.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,143 +1865,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:21">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -1487,46 +2023,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1"/>
-    <row r="7" spans="1:21" s="2" customFormat="1"/>
-    <row r="8" spans="1:21" s="2" customFormat="1"/>
-    <row r="9" spans="1:21" s="2" customFormat="1"/>
-    <row r="10" spans="1:21" s="2" customFormat="1"/>
-    <row r="11" spans="1:21" s="2" customFormat="1"/>
-    <row r="12" spans="1:21" s="2" customFormat="1"/>
-    <row r="13" spans="1:21" s="2" customFormat="1"/>
-    <row r="14" spans="1:21" s="2" customFormat="1"/>
-    <row r="15" spans="1:21" s="2" customFormat="1"/>
-    <row r="16" spans="1:21" s="2" customFormat="1"/>
+    <row r="6" s="2" customFormat="1"/>
+    <row r="7" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
     <row r="17" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:U1"/>
     <mergeCell ref="E2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="2"/>
+    <col min="5" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,173 +2074,173 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="2">
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="2">
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="2">
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="2">
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="2">
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="2">
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="2">
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1711,10 +2248,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1722,14 +2259,14 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24730" windowHeight="10590"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <t>rabid_dog</t>
   </si>
   <si>
-    <t>1001</t>
+    <t>1005</t>
   </si>
   <si>
     <t>赵无名</t>
@@ -211,10 +211,10 @@
     <t>五行天赋区间</t>
   </si>
   <si>
-    <t>人族</t>
-  </si>
-  <si>
-    <t>30,95</t>
+    <t>人族，农民，白板</t>
+  </si>
+  <si>
+    <t>5,95</t>
   </si>
   <si>
     <t>EffectList</t>
@@ -1304,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1498,7 +1498,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2">
         <v>10</v>
@@ -1507,16 +1507,16 @@
         <v>5</v>
       </c>
       <c r="O5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
@@ -1844,12 +1844,13 @@
   <sheetPr/>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="E5:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="21.4166666666667" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="7" width="5.83333333333333" customWidth="1"/>
     <col min="8" max="9" width="10.1666666666667" customWidth="1"/>
@@ -1978,49 +1979,49 @@
         <v>80</v>
       </c>
       <c r="G5" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="P5" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="T5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U5" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1"/>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -1304,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1844,7 +1844,7 @@
   <sheetPr/>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>##var</t>
   </si>
@@ -166,6 +166,9 @@
     <t>1005</t>
   </si>
   <si>
+    <t>武器:10004</t>
+  </si>
+  <si>
     <t>赵无名</t>
   </si>
   <si>
@@ -175,16 +178,10 @@
     <t>1001,1002</t>
   </si>
   <si>
-    <t>披挂:10003|配饰:10002</t>
-  </si>
-  <si>
     <t>1002,2001</t>
   </si>
   <si>
     <t>萧炎</t>
-  </si>
-  <si>
-    <t>披挂:10003|配饰:10001</t>
   </si>
   <si>
     <t>1004,2003</t>
@@ -1305,7 +1302,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1518,6 +1515,9 @@
       <c r="R5" s="2">
         <v>5</v>
       </c>
+      <c r="Z5" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="2:27">
@@ -1525,10 +1525,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1537,7 +1537,7 @@
         <v>10013</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2">
         <v>16</v>
@@ -1591,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>49</v>
@@ -1605,7 +1605,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1614,7 +1614,7 @@
         <v>10009</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2">
         <v>16</v>
@@ -1668,10 +1668,10 @@
         <v>30</v>
       </c>
       <c r="Z7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -1679,10 +1679,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1691,7 +1691,7 @@
         <v>10013</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <v>16</v>
@@ -1745,7 +1745,7 @@
         <v>30</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>49</v>
@@ -1756,10 +1756,10 @@
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1768,7 +1768,7 @@
         <v>10009</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2">
         <v>16</v>
@@ -1822,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="Z9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1886,7 +1886,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1956,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1967,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2109,7 +2109,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2117,10 +2117,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2128,10 +2128,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2139,10 +2139,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2150,10 +2150,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2161,10 +2161,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2172,10 +2172,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2183,10 +2183,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2194,10 +2194,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2205,10 +2205,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2216,10 +2216,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2227,10 +2227,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2238,10 +2238,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2249,10 +2249,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2260,10 +2260,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -163,7 +163,7 @@
     <t>rabid_dog</t>
   </si>
   <si>
-    <t>1005</t>
+    <t>2001</t>
   </si>
   <si>
     <t>武器:10004</t>
@@ -175,16 +175,13 @@
     <t>twilight_knight</t>
   </si>
   <si>
-    <t>1001,1002</t>
-  </si>
-  <si>
-    <t>1002,2001</t>
+    <t>1001,1002,1003</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>萧炎</t>
-  </si>
-  <si>
-    <t>1004,2003</t>
   </si>
   <si>
     <t>叶凡</t>
@@ -1302,7 +1299,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1311,7 +1308,7 @@
     <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5916666666667" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6583333333333" style="3" customWidth="1"/>
     <col min="8" max="11" width="5.83333333333333" style="2" customWidth="1"/>
     <col min="12" max="13" width="10.1666666666667" style="2" customWidth="1"/>
     <col min="14" max="18" width="5.83333333333333" style="2" customWidth="1"/>
@@ -1520,7 +1517,7 @@
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:26">
       <c r="B6" s="2">
         <v>101</v>
       </c>
@@ -1593,11 +1590,11 @@
       <c r="Z6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="2:27">
       <c r="B7" s="2">
         <v>102</v>
       </c>
@@ -1670,16 +1667,13 @@
       <c r="Z7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
+    </row>
+    <row r="8" spans="2:26">
       <c r="B8" s="2">
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1747,16 +1741,13 @@
       <c r="Z8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27">
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="2">
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>
@@ -1823,9 +1814,6 @@
       </c>
       <c r="Z9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +1854,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1886,7 +1874,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1956,10 +1944,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1967,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -2075,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2109,7 +2097,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2117,10 +2105,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2128,10 +2116,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2139,10 +2127,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2150,10 +2138,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2161,10 +2149,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2172,10 +2160,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2183,10 +2171,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2194,10 +2182,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2205,10 +2193,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2216,10 +2204,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2227,10 +2215,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2238,10 +2226,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2249,10 +2237,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2260,10 +2248,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>twilight_knight</t>
-  </si>
-  <si>
-    <t>1001,1002,1003</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>萧炎</t>
@@ -1299,7 +1293,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1517,7 +1511,7 @@
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:27">
       <c r="B6" s="2">
         <v>101</v>
       </c>
@@ -1533,9 +1527,7 @@
       <c r="F6" s="2">
         <v>10013</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="2">
         <v>16</v>
       </c>
@@ -1590,16 +1582,16 @@
       <c r="Z6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="AA6" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7" s="2">
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1610,9 +1602,7 @@
       <c r="F7" s="2">
         <v>10009</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="2">
         <v>16</v>
       </c>
@@ -1667,13 +1657,16 @@
       <c r="Z7" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="2:26">
+      <c r="AA7" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="B8" s="2">
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1684,9 +1677,7 @@
       <c r="F8" s="2">
         <v>10013</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="2">
         <v>16</v>
       </c>
@@ -1741,13 +1732,16 @@
       <c r="Z8" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:26">
+      <c r="AA8" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
       <c r="B9" s="2">
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>
@@ -1758,9 +1752,7 @@
       <c r="F9" s="2">
         <v>10009</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="2">
         <v>16</v>
       </c>
@@ -1814,6 +1806,9 @@
       </c>
       <c r="Z9" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -1854,10 +1849,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1874,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1944,10 +1939,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1955,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -2063,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2097,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2105,10 +2100,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2116,10 +2111,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2127,10 +2122,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2138,10 +2133,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2149,10 +2144,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2160,10 +2155,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2171,10 +2166,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2182,10 +2177,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2193,10 +2188,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2204,10 +2199,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2215,10 +2210,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2226,10 +2221,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2237,10 +2232,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2248,10 +2243,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1733,7 +1733,7 @@
         <v>45</v>
       </c>
       <c r="AA8" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -1808,7 +1808,7 @@
         <v>45</v>
       </c>
       <c r="AA9" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -166,13 +166,16 @@
     <t>2001</t>
   </si>
   <si>
+    <t>武器:2001</t>
+  </si>
+  <si>
+    <t>赵无名</t>
+  </si>
+  <si>
+    <t>twilight_knight</t>
+  </si>
+  <si>
     <t>武器:10004</t>
-  </si>
-  <si>
-    <t>赵无名</t>
-  </si>
-  <si>
-    <t>twilight_knight</t>
   </si>
   <si>
     <t>萧炎</t>
@@ -1293,7 +1296,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1492,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="N5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="2">
         <v>5</v>
@@ -1538,25 +1541,25 @@
         <v>8</v>
       </c>
       <c r="L6" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2">
         <v>6</v>
       </c>
       <c r="P6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2">
         <v>60</v>
@@ -1580,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="2">
         <v>2001</v>
@@ -1591,7 +1594,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1613,25 +1616,25 @@
         <v>8</v>
       </c>
       <c r="L7" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M7" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2">
         <v>6</v>
       </c>
       <c r="P7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="2">
         <v>6</v>
       </c>
       <c r="R7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7" s="2">
         <v>60</v>
@@ -1655,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="2">
         <v>2002</v>
@@ -1666,7 +1669,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1688,25 +1691,25 @@
         <v>8</v>
       </c>
       <c r="L8" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M8" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2">
         <v>6</v>
       </c>
       <c r="O8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="2">
         <v>6</v>
       </c>
       <c r="Q8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S8" s="2">
         <v>60</v>
@@ -1730,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA8" s="2">
         <v>2003</v>
@@ -1741,7 +1744,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>
@@ -1763,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M9" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" s="2">
         <v>6</v>
@@ -1775,13 +1778,13 @@
         <v>6</v>
       </c>
       <c r="P9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S9" s="2">
         <v>60</v>
@@ -1805,7 +1808,7 @@
         <v>30</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA9" s="2">
         <v>2003</v>
@@ -1849,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1869,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1939,10 +1942,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1950,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -2058,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2092,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2100,10 +2103,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2111,10 +2114,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2122,10 +2125,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2133,10 +2136,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2144,10 +2147,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2155,10 +2158,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2166,10 +2169,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2177,10 +2180,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2188,10 +2191,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2199,10 +2202,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2210,10 +2213,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2221,10 +2224,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2232,10 +2235,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2243,10 +2246,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>twilight_knight</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>武器:10004</t>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1530,7 +1533,9 @@
       <c r="F6" s="2">
         <v>10013</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H6" s="2">
         <v>16</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="2">
         <v>2001</v>
@@ -1594,7 +1599,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1605,7 +1610,9 @@
       <c r="F7" s="2">
         <v>10009</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>30</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="2">
         <v>2002</v>
@@ -1669,7 +1676,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1680,7 +1687,9 @@
       <c r="F8" s="2">
         <v>10013</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H8" s="2">
         <v>16</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="2">
         <v>2003</v>
@@ -1744,7 +1753,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>
@@ -1755,7 +1764,9 @@
       <c r="F9" s="2">
         <v>10009</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="2">
         <v>16</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>30</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="2">
         <v>2003</v>
@@ -1852,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1872,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -1942,10 +1953,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="2:21">
@@ -1953,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -2061,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2095,7 +2106,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2103,10 +2114,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -2114,10 +2125,10 @@
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2125,10 +2136,10 @@
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2136,10 +2147,10 @@
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -2147,10 +2158,10 @@
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -2158,10 +2169,10 @@
         <v>10006</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -2169,10 +2180,10 @@
         <v>10007</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -2180,10 +2191,10 @@
         <v>10008</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -2191,10 +2202,10 @@
         <v>10009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -2202,10 +2213,10 @@
         <v>10010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2213,10 +2224,10 @@
         <v>10011</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2224,10 +2235,10 @@
         <v>10012</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2235,10 +2246,10 @@
         <v>10013</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -2246,10 +2257,10 @@
         <v>10014</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/角色表.xlsx
+++ b/新导表工具/DataTables/Datas/角色表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="角色表" sheetId="4" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1382,7 +1382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:25">
+    <row r="3" s="1" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="1:27">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="1:27">
       <c r="B6" s="2">
         <v>101</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="1:27">
       <c r="B7" s="2">
         <v>102</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="1:27">
       <c r="B8" s="2">
         <v>103</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="1:27">
       <c r="B9" s="2">
         <v>104</v>
       </c>
@@ -1855,7 +1855,7 @@
     <col min="15" max="21" width="10.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:21">
+    <row r="5" s="2" customFormat="1" spans="1:21">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="2">
         <v>10006</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="2">
         <v>10007</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="2">
         <v>10008</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4">
       <c r="B13" s="2">
         <v>10009</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4">
       <c r="B14" s="2">
         <v>10010</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4">
       <c r="B15" s="2">
         <v>10011</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <v>10012</v>
       </c>
